--- a/data_images.xlsx
+++ b/data_images.xlsx
@@ -483,7 +483,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -503,7 +505,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -523,7 +527,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -543,7 +549,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -563,7 +571,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -583,7 +593,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -603,7 +615,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -623,7 +637,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -643,7 +659,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -663,7 +681,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -683,7 +703,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -703,7 +725,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -723,7 +747,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -743,7 +769,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -763,7 +791,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -783,7 +813,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
